--- a/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
+++ b/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-07T14:38:19-03:00</t>
+    <t>2024-12-13T10:10:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
+++ b/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
@@ -7,14 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSet #0" r:id="rId4" sheetId="2"/>
-    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Property</t>
   </si>
@@ -49,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -61,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T10:10:51-03:00</t>
+    <t>2024-12-16T14:50:05-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,13 +105,40 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
-  </si>
-  <si>
     <t>Concept</t>
+  </si>
+  <si>
+    <t>9279-1</t>
+  </si>
+  <si>
+    <t>8867-4</t>
+  </si>
+  <si>
+    <t>2708-6</t>
+  </si>
+  <si>
+    <t>8310-5</t>
+  </si>
+  <si>
+    <t>8302-2</t>
+  </si>
+  <si>
+    <t>29463-7</t>
+  </si>
+  <si>
+    <t>39156-5</t>
+  </si>
+  <si>
+    <t>85354-9</t>
+  </si>
+  <si>
+    <t>8480-6</t>
+  </si>
+  <si>
+    <t>8462-4</t>
+  </si>
+  <si>
+    <t>8478-0</t>
   </si>
   <si>
     <t>72514-3</t>
@@ -413,7 +439,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,69 +453,108 @@
       <c r="A1" t="s" s="1">
         <v>30</v>
       </c>
+      <c r="B1" t="s" s="1">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>33</v>
-      </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
         <v>38</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
+++ b/fhir/ig/urgencia/ValueSet-SignosVitales.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-16T14:50:05-03:00</t>
+    <t>2024-12-17T10:22:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
